--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44148,6 +44148,41 @@
         </is>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44183,6 +44183,43 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44220,6 +44220,41 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>7100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44255,6 +44255,41 @@
         <v>7100</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44290,6 +44290,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44327,6 +44327,41 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44362,6 +44362,43 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44399,6 +44399,43 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44436,6 +44436,43 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44473,6 +44473,43 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44510,6 +44510,43 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44547,6 +44547,43 @@
         </is>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44584,6 +44584,78 @@
         </is>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>24300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44656,6 +44656,76 @@
         <v>24300</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>7000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44726,6 +44726,41 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>11000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44761,6 +44761,41 @@
         <v>11000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>950000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44796,6 +44796,41 @@
         <v>950000</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>26800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44831,6 +44831,41 @@
         <v>26800</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44866,6 +44866,78 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I1235" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44938,6 +44938,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44973,6 +44973,41 @@
         <v>200</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2124"/>
+  <dimension ref="A1:I2125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76018,6 +76018,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2125">
+      <c r="A2125" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2125" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2125" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D2125" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E2125" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F2125" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G2125" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H2125" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I2125" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2125"/>
+  <dimension ref="A1:I2126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76055,6 +76055,43 @@
         </is>
       </c>
     </row>
+    <row r="2126">
+      <c r="A2126" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2126" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2126" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D2126" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E2126" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F2126" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G2126" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H2126" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I2126" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2126"/>
+  <dimension ref="A1:I2127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76092,6 +76092,41 @@
         </is>
       </c>
     </row>
+    <row r="2127">
+      <c r="A2127" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2127" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2127" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D2127" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E2127" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F2127" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G2127" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H2127" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I2127" t="n">
+        <v>17000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2127"/>
+  <dimension ref="A1:I2128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76127,6 +76127,41 @@
         <v>17000</v>
       </c>
     </row>
+    <row r="2128">
+      <c r="A2128" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2128" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D2128" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E2128" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F2128" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G2128" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H2128" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I2128" t="n">
+        <v>35000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2128"/>
+  <dimension ref="A1:I2129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76162,6 +76162,41 @@
         <v>35000</v>
       </c>
     </row>
+    <row r="2129">
+      <c r="A2129" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2129" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2129" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D2129" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E2129" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F2129" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2129" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2129" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I2129" t="n">
+        <v>49400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2129"/>
+  <dimension ref="A1:I2130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76197,6 +76197,41 @@
         <v>49400</v>
       </c>
     </row>
+    <row r="2130">
+      <c r="A2130" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2130" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2130" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D2130" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E2130" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F2130" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G2130" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H2130" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I2130" t="n">
+        <v>5600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2130"/>
+  <dimension ref="A1:I2131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76232,6 +76232,41 @@
         <v>5600</v>
       </c>
     </row>
+    <row r="2131">
+      <c r="A2131" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2131" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2131" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D2131" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E2131" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F2131" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2131" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H2131" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I2131" t="n">
+        <v>4800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2131"/>
+  <dimension ref="A1:I2132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76267,6 +76267,41 @@
         <v>4800</v>
       </c>
     </row>
+    <row r="2132">
+      <c r="A2132" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2132" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2132" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D2132" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E2132" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F2132" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G2132" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H2132" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I2132" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2132"/>
+  <dimension ref="A1:I2133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76302,6 +76302,41 @@
         <v>200</v>
       </c>
     </row>
+    <row r="2133">
+      <c r="A2133" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2133" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2133" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D2133" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E2133" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F2133" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="G2133" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H2133" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="I2133" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2133"/>
+  <dimension ref="A1:I2134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76337,6 +76337,41 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="2134">
+      <c r="A2134" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2134" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2134" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D2134" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E2134" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="F2134" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G2134" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H2134" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I2134" t="n">
+        <v>17200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2134"/>
+  <dimension ref="A1:I2135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76372,6 +76372,41 @@
         <v>17200</v>
       </c>
     </row>
+    <row r="2135">
+      <c r="A2135" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2135" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2135" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D2135" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E2135" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F2135" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G2135" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H2135" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I2135" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2135"/>
+  <dimension ref="A1:I2136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76407,6 +76407,43 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="2136">
+      <c r="A2136" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2136" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2136" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D2136" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E2136" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F2136" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G2136" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H2136" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I2136" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2136"/>
+  <dimension ref="A1:I2137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76444,6 +76444,41 @@
         </is>
       </c>
     </row>
+    <row r="2137">
+      <c r="A2137" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2137" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2137" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D2137" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E2137" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F2137" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G2137" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H2137" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I2137" t="n">
+        <v>3900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2137"/>
+  <dimension ref="A1:I2138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76479,6 +76479,41 @@
         <v>3900</v>
       </c>
     </row>
+    <row r="2138">
+      <c r="A2138" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2138" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2138" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D2138" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E2138" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F2138" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G2138" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H2138" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="I2138" t="n">
+        <v>2500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9148.xlsx
+++ b/data/9148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2138"/>
+  <dimension ref="A1:I2139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76514,6 +76514,41 @@
         <v>2500</v>
       </c>
     </row>
+    <row r="2139">
+      <c r="A2139" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2139" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2139" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D2139" t="inlineStr">
+        <is>
+          <t>ADVPKG</t>
+        </is>
+      </c>
+      <c r="E2139" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F2139" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G2139" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H2139" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I2139" t="n">
+        <v>7900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
